--- a/teaching/traditional_assets/database/data/switzerland/switzerland_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_insurance_prop_cas.xlsx
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="E2">
-        <v>0.0198</v>
+        <v>-0.033</v>
       </c>
       <c r="F2">
-        <v>0.0765</v>
+        <v>0.0667</v>
       </c>
       <c r="G2">
-        <v>0.1566789623269033</v>
+        <v>0.1578645893000344</v>
       </c>
       <c r="H2">
-        <v>0.1566789623269033</v>
+        <v>0.1578645893000344</v>
       </c>
       <c r="I2">
-        <v>0.1370796397556356</v>
+        <v>0.07520408622817321</v>
       </c>
       <c r="J2">
-        <v>0.1127395544337233</v>
+        <v>0.06252432750365564</v>
       </c>
       <c r="K2">
-        <v>3636</v>
+        <v>2288</v>
       </c>
       <c r="L2">
-        <v>0.1099352966076072</v>
+        <v>0.06552869744529728</v>
       </c>
       <c r="M2">
-        <v>2865</v>
+        <v>2035</v>
       </c>
       <c r="N2">
-        <v>0.04070365466252195</v>
+        <v>0.02929452732164527</v>
       </c>
       <c r="O2">
-        <v>0.7879537953795379</v>
+        <v>0.8894230769230769</v>
       </c>
       <c r="P2">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="Q2">
-        <v>0.01917973256349202</v>
+        <v>0.01979359954165221</v>
       </c>
       <c r="R2">
-        <v>0.3712871287128713</v>
+        <v>0.6009615384615384</v>
       </c>
       <c r="S2">
-        <v>1515</v>
+        <v>660</v>
       </c>
       <c r="T2">
-        <v>0.5287958115183246</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="U2">
-        <v>1478</v>
+        <v>1707</v>
       </c>
       <c r="V2">
-        <v>0.02099825535469719</v>
+        <v>0.02457285412189115</v>
       </c>
       <c r="W2">
-        <v>0.07138650017669926</v>
+        <v>0.04192626255222458</v>
       </c>
       <c r="X2">
-        <v>0.05059858280843017</v>
+        <v>0.04789904570080378</v>
       </c>
       <c r="Y2">
-        <v>0.02078791736826908</v>
+        <v>-0.005972783148579193</v>
       </c>
       <c r="Z2">
-        <v>0.6385048094784931</v>
+        <v>0.6411208561022858</v>
       </c>
       <c r="AA2">
-        <v>0.07198474772439471</v>
+        <v>0.04008565037636339</v>
       </c>
       <c r="AB2">
-        <v>0.04545528660726562</v>
+        <v>0.04112498518784301</v>
       </c>
       <c r="AC2">
-        <v>0.02652946111712909</v>
+        <v>-0.001039334811479622</v>
       </c>
       <c r="AD2">
-        <v>16598</v>
+        <v>19702</v>
       </c>
       <c r="AE2">
-        <v>736.1399736105486</v>
+        <v>615.8706262855198</v>
       </c>
       <c r="AF2">
-        <v>17334.13997361055</v>
+        <v>20317.87062628552</v>
       </c>
       <c r="AG2">
-        <v>15856.13997361055</v>
+        <v>18610.87062628552</v>
       </c>
       <c r="AH2">
-        <v>0.197605497374119</v>
+        <v>0.2262952891070507</v>
       </c>
       <c r="AI2">
-        <v>0.2410662007440832</v>
+        <v>0.2647939539907328</v>
       </c>
       <c r="AJ2">
-        <v>0.1838543535095437</v>
+        <v>0.2113004279507885</v>
       </c>
       <c r="AK2">
-        <v>0.2251392693254692</v>
+        <v>0.2480659884770725</v>
       </c>
       <c r="AL2">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="AM2">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="AN2">
-        <v>3.322257806244996</v>
+        <v>6.476660092044708</v>
       </c>
       <c r="AO2">
-        <v>7.89492119089317</v>
+        <v>4.944656488549619</v>
       </c>
       <c r="AP2">
-        <v>3.173767008328773</v>
+        <v>6.117971935005102</v>
       </c>
       <c r="AQ2">
-        <v>7.89492119089317</v>
+        <v>4.944656488549619</v>
       </c>
     </row>
     <row r="3">
@@ -728,124 +728,124 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.111</v>
+        <v>0.129</v>
       </c>
       <c r="E3">
-        <v>0.0198</v>
+        <v>-0.033</v>
       </c>
       <c r="F3">
-        <v>0.0765</v>
+        <v>0.0667</v>
       </c>
       <c r="G3">
-        <v>0.1566789623269033</v>
+        <v>0.1578645893000344</v>
       </c>
       <c r="H3">
-        <v>0.1566789623269033</v>
+        <v>0.1578645893000344</v>
       </c>
       <c r="I3">
-        <v>0.1370796397556356</v>
+        <v>0.07520408622817321</v>
       </c>
       <c r="J3">
-        <v>0.1127395544337233</v>
+        <v>0.06252432750365564</v>
       </c>
       <c r="K3">
-        <v>3636</v>
+        <v>2288</v>
       </c>
       <c r="L3">
-        <v>0.1099352966076072</v>
+        <v>0.06552869744529728</v>
       </c>
       <c r="M3">
-        <v>2865</v>
+        <v>2035</v>
       </c>
       <c r="N3">
-        <v>0.04070365466252195</v>
+        <v>0.02929452732164527</v>
       </c>
       <c r="O3">
-        <v>0.7879537953795379</v>
+        <v>0.8894230769230769</v>
       </c>
       <c r="P3">
-        <v>1350</v>
+        <v>1375</v>
       </c>
       <c r="Q3">
-        <v>0.01917973256349202</v>
+        <v>0.01979359954165221</v>
       </c>
       <c r="R3">
-        <v>0.3712871287128713</v>
+        <v>0.6009615384615384</v>
       </c>
       <c r="S3">
-        <v>1515</v>
+        <v>660</v>
       </c>
       <c r="T3">
-        <v>0.5287958115183246</v>
+        <v>0.3243243243243243</v>
       </c>
       <c r="U3">
-        <v>1478</v>
+        <v>1707</v>
       </c>
       <c r="V3">
-        <v>0.02099825535469719</v>
+        <v>0.02457285412189115</v>
       </c>
       <c r="W3">
-        <v>0.07138650017669926</v>
+        <v>0.04192626255222458</v>
       </c>
       <c r="X3">
-        <v>0.05059858280843017</v>
+        <v>0.04789904570080378</v>
       </c>
       <c r="Y3">
-        <v>0.02078791736826908</v>
+        <v>-0.005972783148579193</v>
       </c>
       <c r="Z3">
-        <v>0.6385048094784931</v>
+        <v>0.6411208561022858</v>
       </c>
       <c r="AA3">
-        <v>0.07198474772439471</v>
+        <v>0.04008565037636339</v>
       </c>
       <c r="AB3">
-        <v>0.04545528660726562</v>
+        <v>0.04112498518784301</v>
       </c>
       <c r="AC3">
-        <v>0.02652946111712909</v>
+        <v>-0.001039334811479622</v>
       </c>
       <c r="AD3">
-        <v>16598</v>
+        <v>19702</v>
       </c>
       <c r="AE3">
-        <v>736.1399736105486</v>
+        <v>615.8706262855198</v>
       </c>
       <c r="AF3">
-        <v>17334.13997361055</v>
+        <v>20317.87062628552</v>
       </c>
       <c r="AG3">
-        <v>15856.13997361055</v>
+        <v>18610.87062628552</v>
       </c>
       <c r="AH3">
-        <v>0.197605497374119</v>
+        <v>0.2262952891070507</v>
       </c>
       <c r="AI3">
-        <v>0.2410662007440832</v>
+        <v>0.2647939539907328</v>
       </c>
       <c r="AJ3">
-        <v>0.1838543535095437</v>
+        <v>0.2113004279507885</v>
       </c>
       <c r="AK3">
-        <v>0.2251392693254692</v>
+        <v>0.2480659884770725</v>
       </c>
       <c r="AL3">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="AM3">
-        <v>571</v>
+        <v>524</v>
       </c>
       <c r="AN3">
-        <v>3.322257806244996</v>
+        <v>6.476660092044708</v>
       </c>
       <c r="AO3">
-        <v>7.89492119089317</v>
+        <v>4.944656488549619</v>
       </c>
       <c r="AP3">
-        <v>3.173767008328773</v>
+        <v>6.117971935005102</v>
       </c>
       <c r="AQ3">
-        <v>7.89492119089317</v>
+        <v>4.944656488549619</v>
       </c>
     </row>
   </sheetData>
